--- a/Tests/Casos de prueba.xlsx
+++ b/Tests/Casos de prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coder-House\Python\blogProject\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A549AE6-3394-477E-8195-0000CD456BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC317F-5F1D-453B-B778-BC757440BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -104,13 +104,22 @@
   </si>
   <si>
     <t>Simulación de ABM de productos musicales</t>
+  </si>
+  <si>
+    <t>Caso #4</t>
+  </si>
+  <si>
+    <t>Permisos de usuario</t>
+  </si>
+  <si>
+    <t>Se verifica que solo los usuarios logueados puedan realizar modificaciones de los productos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +164,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -204,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -233,6 +247,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +474,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -646,6 +669,20 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16">
+        <v>45382</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1628,6 +1665,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
